--- a/server_version/second run/set_count3.xlsx
+++ b/server_version/second run/set_count3.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\server_version\second run\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F273F6-1497-495E-A218-2A2FCA43FE61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="33150" yWindow="5235" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set_count" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +130,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,14 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -490,19 +550,19 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>0.9597738924674641</v>
+        <v>0.95977389246746414</v>
       </c>
       <c r="G2">
-        <v>0.9463782007282989</v>
+        <v>0.94637820072829892</v>
       </c>
       <c r="H2">
-        <v>46.28571428571428</v>
+        <v>46.285714285714278</v>
       </c>
       <c r="I2">
-        <v>0.1669974022225429</v>
+        <v>0.16699740222254289</v>
       </c>
       <c r="J2">
-        <v>0.2844938409744993</v>
+        <v>0.28449384097449931</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -526,10 +586,14 @@
         <v>20</v>
       </c>
       <c r="R2">
-        <v>202.3459665775299</v>
+        <v>202.34596657752991</v>
+      </c>
+      <c r="T2">
+        <f>2*G2*I2/(G2+I2)</f>
+        <v>0.28389826510083527</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -546,19 +610,19 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>0.9597738924674641</v>
+        <v>0.95977389246746414</v>
       </c>
       <c r="G3">
-        <v>0.9463782007282989</v>
+        <v>0.94637820072829892</v>
       </c>
       <c r="H3">
-        <v>46.28571428571428</v>
+        <v>46.285714285714278</v>
       </c>
       <c r="I3">
-        <v>0.1669974022225429</v>
+        <v>0.16699740222254289</v>
       </c>
       <c r="J3">
-        <v>0.2844938409744993</v>
+        <v>0.28449384097449931</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -582,10 +646,15 @@
         <v>20</v>
       </c>
       <c r="R3">
-        <v>312.8924655914307</v>
+        <v>312.89246559143072</v>
+      </c>
+      <c r="T3">
+        <f>2*G3*I3/(G3+I3)</f>
+        <v>0.28389826510083527</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>